--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -91,61 +91,58 @@
     <t>Enums.INTERACTION_TYPE.Choice</t>
   </si>
   <si>
-    <t>Here's a choice to end the message.</t>
+    <t>Go to the level</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Enums.INTERACTION_TYPE.Teleport</t>
+  </si>
+  <si>
+    <t>I'm a choice to jump to the next one.</t>
+  </si>
+  <si>
+    <t>This message will end the chat.</t>
+  </si>
+  <si>
     <t>Enums.INTERACTION_TYPE.End</t>
   </si>
   <si>
-    <t>I'm a choice to jump to the next one.</t>
-  </si>
-  <si>
-    <t>This message will end the chat.</t>
-  </si>
-  <si>
-    <t>This is the message to start Task 1</t>
-  </si>
-  <si>
-    <t>Now we will complete 1 to unlock Task 2</t>
+    <t>Wanna try a sample game?</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>Yes I'm ready</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Enums.INTERACTION_TYPE.StartGame</t>
+  </si>
+  <si>
+    <t>Nope...</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Ready for the the first day?</t>
+  </si>
+  <si>
+    <t>10,11</t>
   </si>
   <si>
     <t>Enums.INTERACTION_EVENT.CompleteTask</t>
-  </si>
-  <si>
-    <t>Only one sentence for task 2</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>This choice does nothing</t>
-  </si>
-  <si>
-    <t>This choice finishes task 2</t>
-  </si>
-  <si>
-    <t>Wanna try a sample game?</t>
-  </si>
-  <si>
-    <t>Atom</t>
-  </si>
-  <si>
-    <t>12,13</t>
-  </si>
-  <si>
-    <t>Yes I'm ready</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.StartGame</t>
-  </si>
-  <si>
-    <t>Nope...</t>
-  </si>
-  <si>
-    <t>You have tried the sample game</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1319,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1335,7 +1332,7 @@
     <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="25.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="17.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="30.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="38.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="40.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1480,11 +1477,11 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3">
-        <v>-1</v>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1504,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
@@ -1536,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -1548,7 +1545,7 @@
         <v>-1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1568,19 +1565,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>0</v>
@@ -1592,7 +1589,7 @@
         <v>-1</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1600,54 +1597,54 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-1</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>20</v>
@@ -1656,30 +1653,30 @@
         <v>-1</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-1</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>20</v>
@@ -1687,63 +1684,63 @@
       <c r="I11" s="3">
         <v>-1</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
+      <c r="J11" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5">
         <v>-1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="3">
+        <v>42</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>20</v>
@@ -1751,103 +1748,7 @@
       <c r="I13" s="3">
         <v>-1</v>
       </c>
-      <c r="J13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="J13" s="6">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -118,7 +118,7 @@
     <t>Atom</t>
   </si>
   <si>
-    <t>7,8</t>
+    <t>7,8,12,13</t>
   </si>
   <si>
     <t>Yes I'm ready</t>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Enums.INTERACTION_EVENT.CompleteTask</t>
+  </si>
+  <si>
+    <t>Try Shooter Level 1</t>
+  </si>
+  <si>
+    <t>Try Shooter Level 2</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1689,7 +1695,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1713,15 +1719,15 @@
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1748,7 +1754,71 @@
       <c r="I13" s="3">
         <v>-1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="5">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,10 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>Target</t>
+    <t>Choices</t>
+  </si>
+  <si>
+    <t>Next</t>
   </si>
   <si>
     <t>Action</t>
@@ -37,15 +40,6 @@
     <t>bEnd</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>EventTarget</t>
-  </si>
-  <si>
-    <t>SpeakerID</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -58,97 +52,46 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>Enums.INTERACTION_TYPE</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_EVENT</t>
-  </si>
-  <si>
-    <t>This is a message.</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Welcome to the debug version!</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>ChatInteraction</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.Next</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_EVENT.None</t>
-  </si>
-  <si>
-    <t>Now we have choices.</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.Choice</t>
-  </si>
-  <si>
-    <t>Go to the level</t>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>Now we have some minigames to play with...</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>Shooter Level 1</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.Teleport</t>
-  </si>
-  <si>
-    <t>I'm a choice to jump to the next one.</t>
-  </si>
-  <si>
-    <t>This message will end the chat.</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.End</t>
-  </si>
-  <si>
-    <t>Wanna try a sample game?</t>
-  </si>
-  <si>
-    <t>Atom</t>
-  </si>
-  <si>
-    <t>7,8,12,13</t>
-  </si>
-  <si>
-    <t>Yes I'm ready</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_TYPE.StartGame</t>
-  </si>
-  <si>
-    <t>Nope...</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Ready for the the first day?</t>
-  </si>
-  <si>
-    <t>10,11</t>
-  </si>
-  <si>
-    <t>Enums.INTERACTION_EVENT.CompleteTask</t>
-  </si>
-  <si>
-    <t>Try Shooter Level 1</t>
-  </si>
-  <si>
-    <t>Try Shooter Level 2</t>
+    <t>Shooter Level 2</t>
+  </si>
+  <si>
+    <t>Shooter Level 3</t>
+  </si>
+  <si>
+    <t>Shooter Level 4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Shooter Level 5</t>
   </si>
 </sst>
 </file>
@@ -1325,24 +1268,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="25.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="38.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="40.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="44.2222222222222" customWidth="1"/>
+    <col min="3" max="4" width="22.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="20.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="26.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1300,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1367,459 +1309,213 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="F5">
         <v>-1</v>
       </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="b">
+      <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
         <v>-1</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>0</v>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="3">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
         <v>-1</v>
       </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="3">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
         <v>-1</v>
       </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
+      <c r="G9">
+        <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="ChatInteraction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -67,18 +80,42 @@
     <t>-1</t>
   </si>
   <si>
-    <t>Now we have some minigames to play with...</t>
-  </si>
-  <si>
-    <t>3,4,5,6,7</t>
+    <t>Anyway, we do not have the actual story but a short demo to slice the game.</t>
+  </si>
+  <si>
+    <t>As you can see, I'm an NPC that can talk with; now you can walk around and come back to me~ WASD to move. We do not have colliders on the edge of this scene, so watch your step or you need to restart.</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Nice, now let me take you to another scene.</t>
+  </si>
+  <si>
+    <t>12,13,107</t>
+  </si>
+  <si>
+    <t>Some conversations can also start without clicking anything, such as a critical story point</t>
+  </si>
+  <si>
+    <t>OffScreen Voice</t>
+  </si>
+  <si>
+    <t>In a short introduction, you are competing for a team for a grand game, and this is where your teammates rest in spare time</t>
+  </si>
+  <si>
+    <t>Anyway, you can walk to the door on the right side to exit the level.</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>Shooter Level 1</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Shooter Level 2</t>
   </si>
   <si>
@@ -88,16 +125,82 @@
     <t>Shooter Level 4</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Shooter Level 5</t>
+  </si>
+  <si>
+    <t>Good to see you again! On the audience stands area for your team, you will talk with differnet NPCs</t>
+  </si>
+  <si>
+    <t>This is also the audience stands, but in low level, and you may meet some random people here</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Theis scene was originally designed for the player's guild, but now it may be something else</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>After we finish everything, you can use the Debug to enter differnent scenes, but since it's a force debugging choice, it may lead to undefined behaivours</t>
+  </si>
+  <si>
+    <t>19,107</t>
+  </si>
+  <si>
+    <t>So on each day, you are talking with various NPCs for the story, and then you will compete for several games</t>
+  </si>
+  <si>
+    <t>What we have now is a set of shooting range level, which you must collect enough information to choose the correct character to play.</t>
+  </si>
+  <si>
+    <t>21,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here are some levels, try anyone except the empty level 5 </t>
+  </si>
+  <si>
+    <t>103,104,105,106,107</t>
+  </si>
+  <si>
+    <t>When you start the level, you can see some sort of intro on the character; to unlock the hints for the level, you can try to talk with more NPCs</t>
+  </si>
+  <si>
+    <t>After each level, you will score according to your performance. You can check Menu-FlashBack to see the total score ranking</t>
+  </si>
+  <si>
+    <t>This is not complete yet, but at the end of each day, some teams with low score will get eliminated</t>
+  </si>
+  <si>
+    <t>Thus, strive for a better score to unlock the real ending on the last day!</t>
+  </si>
+  <si>
+    <t>After you have completed eveything for a day, you can go to the next day; just click the button to do so!</t>
+  </si>
+  <si>
+    <t>25,27,0</t>
+  </si>
+  <si>
+    <t>Now it's another day... you can always use Menu-FlashBack to go back to the any day, but once you go back, there is no way to return to the future!</t>
+  </si>
+  <si>
+    <t>29,30</t>
+  </si>
+  <si>
+    <t>This is the end of the demo, taking me about 4 hours to make, including some other tweak in coding. In the best case, we can make a few minutes of gameplay per day. I will keep making the system easier for the designer to add things. Thanks for playing! Tips: I suggest you to flashback to day 0 right now!</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>You are back to the first day, but we are able to keep track of your time travel...this will also become an important thing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -713,15 +816,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -729,7 +838,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1268,257 +1383,780 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="44.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="129.666666666667" customWidth="1"/>
     <col min="3" max="4" width="22.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="20.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="26.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="26.7777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8">
+        <v>104</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8">
+        <v>106</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8">
+        <v>107</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>104</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="10">
+        <v>16</v>
+      </c>
+      <c r="G22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="10">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="10">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="10">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="G25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="10">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="10">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:H14">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -155,7 +155,7 @@
     <t>What we have now is a set of shooting range level, which you must collect enough information to choose the correct character to play.</t>
   </si>
   <si>
-    <t>21,23</t>
+    <t>21,23,35</t>
   </si>
   <si>
     <t xml:space="preserve">Here are some levels, try anyone except the empty level 5 </t>
@@ -816,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,12 +837,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1386,7 +1380,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1470,7 +1464,7 @@
       <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1478,7 +1472,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1490,7 +1484,7 @@
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>-1</v>
       </c>
       <c r="F4" s="5">
@@ -1504,7 +1498,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1516,7 +1510,7 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>-1</v>
       </c>
       <c r="F5" s="5">
@@ -1530,7 +1524,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1542,13 +1536,13 @@
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>-1</v>
       </c>
       <c r="F6" s="5">
         <v>-1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1556,7 +1550,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1574,7 +1568,7 @@
       <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>-1</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1582,7 +1576,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1600,7 +1594,7 @@
       <c r="F8" s="5">
         <v>7</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>-1</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1608,7 +1602,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1620,13 +1614,13 @@
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>-1</v>
       </c>
       <c r="F9" s="5">
         <v>-1</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1634,7 +1628,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1652,7 +1646,7 @@
       <c r="F10" s="5">
         <v>-1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1660,7 +1654,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1678,7 +1672,7 @@
       <c r="F11" s="5">
         <v>-1</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1686,7 +1680,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>105</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1704,7 +1698,7 @@
       <c r="F12" s="5">
         <v>-1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1712,7 +1706,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>106</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1730,7 +1724,7 @@
       <c r="F13" s="5">
         <v>-1</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>4</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1738,7 +1732,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>107</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1756,7 +1750,7 @@
       <c r="F14" s="5">
         <v>-1</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>5</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1764,7 +1758,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1782,7 +1776,7 @@
       <c r="F15" s="5">
         <v>-1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>104</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -1790,7 +1784,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1808,7 +1802,7 @@
       <c r="F16" s="5">
         <v>-1</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -1816,7 +1810,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1834,7 +1828,7 @@
       <c r="F17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>-1</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -1842,7 +1836,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1860,7 +1854,7 @@
       <c r="F18" s="5">
         <v>-1</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1868,7 +1862,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1883,10 +1877,10 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>13</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>-1</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1894,7 +1888,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1912,7 +1906,7 @@
       <c r="F20" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1920,7 +1914,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1938,7 +1932,7 @@
       <c r="F21" s="5">
         <v>-1</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>-1</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1946,7 +1940,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" t="s">
@@ -1961,10 +1955,10 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="10">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="8">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6">
         <v>-1</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -1972,7 +1966,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>16</v>
       </c>
       <c r="B23" t="s">
@@ -1987,10 +1981,10 @@
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>17</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>-1</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -1998,7 +1992,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>17</v>
       </c>
       <c r="B24" t="s">
@@ -2013,10 +2007,10 @@
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>18</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>-1</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -2024,7 +2018,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>18</v>
       </c>
       <c r="B25" t="s">
@@ -2039,10 +2033,10 @@
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>19</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>-1</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -2050,7 +2044,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" t="s">
@@ -2076,7 +2070,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>20</v>
       </c>
       <c r="B27" t="s">
@@ -2102,7 +2096,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <v>21</v>
       </c>
       <c r="B28" t="s">
@@ -2120,7 +2114,7 @@
       <c r="F28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -2128,7 +2122,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>22</v>
       </c>
       <c r="B29" t="s">
@@ -2146,7 +2140,7 @@
       <c r="F29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>-1</v>
       </c>
       <c r="H29" s="5" t="s">

--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -65,136 +65,220 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Welcome to the debug version!</t>
+    <t>All players shall praise Sportsmanship over competition, and avoid conflicts with the opposing players during the match.Players may check their connection stability to the system in own team rooms. Please make sure the stability is higher than 90.</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
+    <t>Rules (Brief Version)</t>
+  </si>
+  <si>
+    <t>In the virtual environment for the matches, death is also impossible. However, all feelings are 100% resembled as the reality; do not touch any players currently in connection to avoid unexpected severe results!</t>
+  </si>
+  <si>
+    <t>Please keep the time and do not arrive late. All players' abilities and magic are re-balanced and limited during the matches.</t>
+  </si>
+  <si>
+    <t>Report any problem to your guild leader first, then to the game administration.</t>
+  </si>
+  <si>
+    <t>For safety, do not use any abilities or magic in the real world unless specified.</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Hey buddy, is everything going alright? What are you daydreaming about?</t>
+  </si>
+  <si>
     <t>Guide</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>Anyway, we do not have the actual story but a short demo to slice the game.</t>
-  </si>
-  <si>
-    <t>As you can see, I'm an NPC that can talk with; now you can walk around and come back to me~ WASD to move. We do not have colliders on the edge of this scene, so watch your step or you need to restart.</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Nice, now let me take you to another scene.</t>
-  </si>
-  <si>
-    <t>12,13,107</t>
-  </si>
-  <si>
-    <t>Some conversations can also start without clicking anything, such as a critical story point</t>
-  </si>
-  <si>
-    <t>OffScreen Voice</t>
-  </si>
-  <si>
-    <t>In a short introduction, you are competing for a team for a grand game, and this is where your teammates rest in spare time</t>
-  </si>
-  <si>
-    <t>Anyway, you can walk to the door on the right side to exit the level.</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Shooter Level 1</t>
-  </si>
-  <si>
-    <t>Shooter Level 2</t>
-  </si>
-  <si>
-    <t>Shooter Level 3</t>
-  </si>
-  <si>
-    <t>Shooter Level 4</t>
-  </si>
-  <si>
-    <t>Shooter Level 5</t>
-  </si>
-  <si>
-    <t>Good to see you again! On the audience stands area for your team, you will talk with differnet NPCs</t>
-  </si>
-  <si>
-    <t>This is also the audience stands, but in low level, and you may meet some random people here</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Theis scene was originally designed for the player's guild, but now it may be something else</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>After we finish everything, you can use the Debug to enter differnent scenes, but since it's a force debugging choice, it may lead to undefined behaivours</t>
-  </si>
-  <si>
-    <t>19,107</t>
-  </si>
-  <si>
-    <t>So on each day, you are talking with various NPCs for the story, and then you will compete for several games</t>
-  </si>
-  <si>
-    <t>What we have now is a set of shooting range level, which you must collect enough information to choose the correct character to play.</t>
-  </si>
-  <si>
-    <t>21,23,35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here are some levels, try anyone except the empty level 5 </t>
-  </si>
-  <si>
-    <t>103,104,105,106,107</t>
-  </si>
-  <si>
-    <t>When you start the level, you can see some sort of intro on the character; to unlock the hints for the level, you can try to talk with more NPCs</t>
-  </si>
-  <si>
-    <t>After each level, you will score according to your performance. You can check Menu-FlashBack to see the total score ranking</t>
-  </si>
-  <si>
-    <t>This is not complete yet, but at the end of each day, some teams with low score will get eliminated</t>
-  </si>
-  <si>
-    <t>Thus, strive for a better score to unlock the real ending on the last day!</t>
-  </si>
-  <si>
-    <t>After you have completed eveything for a day, you can go to the next day; just click the button to do so!</t>
-  </si>
-  <si>
-    <t>25,27,0</t>
-  </si>
-  <si>
-    <t>Now it's another day... you can always use Menu-FlashBack to go back to the any day, but once you go back, there is no way to return to the future!</t>
-  </si>
-  <si>
-    <t>29,30</t>
-  </si>
-  <si>
-    <t>This is the end of the demo, taking me about 4 hours to make, including some other tweak in coding. In the best case, we can make a few minutes of gameplay per day. I will keep making the system easier for the designer to add things. Thanks for playing! Tips: I suggest you to flashback to day 0 right now!</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>You are back to the first day, but we are able to keep track of your time travel...this will also become an important thing.</t>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>...? Where am I?</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Lost your memory, huh? It's already morning. Hurry up and get ready to go out. Our guild will soon have a match. NPC_0_1 needs your help. Go find her quickly!</t>
+  </si>
+  <si>
+    <t>10003,10004</t>
+  </si>
+  <si>
+    <t>What are you talking about? I don't understand.</t>
+  </si>
+  <si>
+    <t>Oh, okay, I'll go find her now.</t>
+  </si>
+  <si>
+    <t>PLAYER_NAME, have you lost your mind? You don't even recognize me, your guild leader, anymore. No wonder npc1 said you've been acting weird lately, always forgetting things. We'll check it out after the match! By the way, the rules of the match are posted on the wall. Make sure to check them and link them to your neural network.</t>
+  </si>
+  <si>
+    <t>Right, the rules of the match are posted on the wall. Make sure to check them. Remember to link them to your neural network.</t>
+  </si>
+  <si>
+    <t>What's going on? It's the time for the match.</t>
+  </si>
+  <si>
+    <t>DAY 1 SCHEDULE</t>
+  </si>
+  <si>
+    <t>MORNING MATCH: MOBILITY</t>
+  </si>
+  <si>
+    <t>AFTERNOON MATCH: SHOOTING RANGE</t>
+  </si>
+  <si>
+    <t>TODAY's Stability: [90]</t>
+  </si>
+  <si>
+    <t>Connection Check</t>
+  </si>
+  <si>
+    <t>What is really going on... I need to calm down for a bit.</t>
+  </si>
+  <si>
+    <t>Anyway I'll go meet whoever that person juse mentioned.</t>
+  </si>
+  <si>
+    <t>The organizers really did a number on us with such last-minute notice...</t>
+  </si>
+  <si>
+    <t>NPC_1_1</t>
+  </si>
+  <si>
+    <t>10015,10016</t>
+  </si>
+  <si>
+    <t>What happened?</t>
+  </si>
+  <si>
+    <t>Got banned from matching since your company is a sponsor?</t>
+  </si>
+  <si>
+    <t>Well, I was told that since my company is a sponsor of the event, I cannot compete in any match.</t>
+  </si>
+  <si>
+    <t>Don't you find it strange? Everything was set, they even sent me the schedule. Apparently, someone anonymously sent a protest letter to the organizers. Anyway, our guild only has you on site now. It sounds strange to ask you, who hasn't been trained, to replace me in the games... we are sending OTHER_CHARACTER and OTHER_CHARACTER for today, don't worry for today.</t>
+  </si>
+  <si>
+    <t>O...Kay, so may I have a more detailed schedule? I mean I did see a brief one for today.</t>
+  </si>
+  <si>
+    <t>[Passing a calendar] Here it is! We have to compete for 5 days, and the other two days are free time. [You can always go to the Menu to check the current day and the score of each team.]</t>
+  </si>
+  <si>
+    <t>[You may want to check your Notes in the Menu, which records some important information.]</t>
+  </si>
+  <si>
+    <t>Most important thing, during the event, we are prohibitited from using any magic, even during the two days without matches.</t>
+  </si>
+  <si>
+    <t>I see...</t>
+  </si>
+  <si>
+    <t>It's mostly a safety thing; during the matches we are in a virtual environment with balance, but in reality many magical spells are deadly. If someone accidentally turns an area into vapors or warps the time, things will be messy...</t>
+  </si>
+  <si>
+    <t>Well, your time-travel ability is not that harmful, and perhaps no one can sense it, but please do not use it; we are all **** up if we got caught.</t>
+  </si>
+  <si>
+    <t>Wait, time-travel? How did you know I can flash back to the past?</t>
+  </si>
+  <si>
+    <t>Yeah, your hidden ability is one of the secrets of our guild, because it's something affects the rule of the world. Didn't you remember I was one of the witnesses?</t>
+  </si>
+  <si>
+    <t>(My memory... is still partial... I have to keep silence to avoid more troubles...) Oof I almost forget about it; I mean it's a secret I really cannot say, even cannot think.</t>
+  </si>
+  <si>
+    <t>It's fabulous if you are not losing any memory. Anyway, we should get prepared for the first match!</t>
+  </si>
+  <si>
+    <t>You've talked to her, right? Tomorrow you'll match for us. Today we can just relax and cheer for the team.</t>
+  </si>
+  <si>
+    <t>We have already become the best guild over the nation, but you know our real strengths are forcily balanced in games, and in the previous years we always lost for some strange reasons.</t>
+  </si>
+  <si>
+    <t>Anyway you are one of our strongest, this time we will win, even without special training.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In see... so some opponents are specially trained for these matches, but in reality they are not that strong. </t>
+  </si>
+  <si>
+    <t>Let the show begin!</t>
+  </si>
+  <si>
+    <t>Hey bro! Good to see you again. They told me you are gonna match for NPC_1_1</t>
+  </si>
+  <si>
+    <t>NPC_1_2</t>
+  </si>
+  <si>
+    <t>Bruh why suddenly the entire world knows it, but it's not surprising to see you in our guild's VIP area.Is your guild also in the game?</t>
+  </si>
+  <si>
+    <t>Not for this year, our master is out for a conference. Who knows what happened to our emperor... he asks us to form a national team to join the match.</t>
+  </si>
+  <si>
+    <t>All of my homies are here, but the team tile is Team Wozen National; kinda weird for a \"national team\" appearing in a game with teams formed by guilds.</t>
+  </si>
+  <si>
+    <t>(I know who he is, but... my brain it's still foggy)</t>
+  </si>
+  <si>
+    <t>(Perhaps I've got to ask more about the guilds.) Anyway we can still hangout in spare time. Well, what's going on with other guilds?</t>
+  </si>
+  <si>
+    <t>You haven't read about them yet? I thought you're always prepared. This time thirteen teams are in the world championship... Most of them are our old friends.</t>
+  </si>
+  <si>
+    <t>Except that team... the... SPECIAL_TEAM_NAME, do you know it?</t>
+  </si>
+  <si>
+    <t>Nah, me either.</t>
+  </si>
+  <si>
+    <t>They are a bit suspicious; I'll keep an eye on them. Buddy, you've better been prepared, we might get drawn to the same game.</t>
+  </si>
+  <si>
+    <t>I will be ready. If I saw you in the field I would not show mercy.</t>
+  </si>
+  <si>
+    <t>XD, me too. Good luck bro, I have to go back to my team's VIP area.</t>
+  </si>
+  <si>
+    <t>Good game; I mean a really good game, not GG. (Notice: After Dynamic Time is ready, this scene will be altered to sunset time)</t>
+  </si>
+  <si>
+    <t>I was so nervous... we should celebrate that this year we did not make stupid mistakes on the first day!</t>
+  </si>
+  <si>
+    <t>Easier than I thought. I guess tomorrow will be fun.</t>
+  </si>
+  <si>
+    <t>I have a feeling that we can win the champion this time!</t>
+  </si>
+  <si>
+    <t>Well, take a good rest and get ready for tomorrow. Matches will become harder and harder!</t>
+  </si>
+  <si>
+    <t>This is the end of the first day story, more contents are in-progress</t>
+  </si>
+  <si>
+    <t>System</t>
   </si>
 </sst>
 </file>
@@ -360,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +454,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +818,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,16 +842,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -734,114 +860,219 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,778 +1608,1584 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="129.666666666667" customWidth="1"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="136.222222222222" customWidth="1"/>
     <col min="3" max="4" width="22.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="20.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="26.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.4444444444444" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.3333333333333" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.3333333333333" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="15">
+        <v>100</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="18">
+        <v>101</v>
+      </c>
+      <c r="G3" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="A4" s="15">
+        <v>101</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>102</v>
+      </c>
+      <c r="G4" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="A5" s="15">
+        <v>102</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="C5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E5" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>103</v>
+      </c>
+      <c r="G5" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:8">
+      <c r="A6" s="15">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="E6" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>104</v>
+      </c>
+      <c r="G6" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:8">
+      <c r="A7" s="15">
+        <v>104</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:8">
+      <c r="A8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:8">
+      <c r="A9" s="25">
+        <v>10001</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="25">
+        <v>10002</v>
+      </c>
+      <c r="G9" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:8">
+      <c r="A10" s="25">
+        <v>10002</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:8">
+      <c r="A11" s="25">
+        <v>10003</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>10005</v>
+      </c>
+      <c r="G11" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:8">
+      <c r="A12" s="25">
+        <v>10004</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="25">
+        <v>10006</v>
+      </c>
+      <c r="G12" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:8">
+      <c r="A13" s="25">
+        <v>10005</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:8">
+      <c r="A14" s="25">
+        <v>10006</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:8">
+      <c r="A15" s="27">
+        <v>10007</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:8">
+      <c r="A16" s="28">
+        <v>10008</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="E16" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>10009</v>
+      </c>
+      <c r="G16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:8">
+      <c r="A17" s="28">
+        <v>10009</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="28">
+        <v>10010</v>
+      </c>
+      <c r="G17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:8">
+      <c r="A18" s="28">
+        <v>10010</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="28">
+        <v>100</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1004</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:8">
+      <c r="A19" s="28">
+        <v>10011</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="20" s="5" customFormat="1" spans="1:8">
+      <c r="A20" s="33">
+        <v>10012</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="35">
+        <v>10012</v>
+      </c>
+      <c r="G20" s="36">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:8">
+      <c r="A21" s="33">
+        <v>10013</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="35">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1006</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:8">
+      <c r="A22" s="28">
+        <v>10014</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:8">
+      <c r="A23" s="28">
+        <v>10015</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="31">
+        <v>10017</v>
+      </c>
+      <c r="G23" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:8">
+      <c r="A24" s="28">
+        <v>10016</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="31">
+        <v>10018</v>
+      </c>
+      <c r="G24" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:8">
+      <c r="A25" s="28">
+        <v>10017</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="31">
+        <v>10018</v>
+      </c>
+      <c r="G25" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:8">
+      <c r="A26" s="28">
+        <v>10018</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>10019</v>
+      </c>
+      <c r="G26" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:8">
+      <c r="A27" s="40">
+        <v>10019</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="41">
+        <v>10020</v>
+      </c>
+      <c r="G27" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:8">
+      <c r="A28" s="40">
+        <v>10020</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="41">
+        <v>10021</v>
+      </c>
+      <c r="G28" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:8">
+      <c r="A29" s="40">
+        <v>10021</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="41">
+        <v>10022</v>
+      </c>
+      <c r="G29" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:8">
+      <c r="A30" s="40">
+        <v>10022</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="41">
+        <v>10023</v>
+      </c>
+      <c r="G30" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:8">
+      <c r="A31" s="28">
+        <v>10023</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>10024</v>
+      </c>
+      <c r="G31" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:8">
+      <c r="A32" s="28">
+        <v>10024</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="31">
+        <v>10025</v>
+      </c>
+      <c r="G32" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:8">
+      <c r="A33" s="28">
+        <v>10025</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="31">
+        <v>10026</v>
+      </c>
+      <c r="G33" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:8">
+      <c r="A34" s="28">
+        <v>10026</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="31">
+        <v>10027</v>
+      </c>
+      <c r="G34" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:8">
+      <c r="A35" s="28">
+        <v>10027</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="31">
+        <v>10028</v>
+      </c>
+      <c r="G35" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:8">
+      <c r="A36" s="28">
+        <v>10028</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="31">
+        <v>10029</v>
+      </c>
+      <c r="G36" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:8">
+      <c r="A37" s="28">
+        <v>10029</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="32">
+        <v>1008</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" s="6" customFormat="1" spans="1:8">
+      <c r="A38" s="27">
+        <v>10030</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E38" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="42">
+        <v>10031</v>
+      </c>
+      <c r="G38" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" s="6" customFormat="1" spans="1:8">
+      <c r="A39" s="27">
+        <v>10031</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="42">
+        <v>10032</v>
+      </c>
+      <c r="G39" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" s="6" customFormat="1" spans="1:8">
+      <c r="A40" s="27">
+        <v>10032</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="42">
+        <v>10033</v>
+      </c>
+      <c r="G40" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" s="6" customFormat="1" spans="1:8">
+      <c r="A41" s="27">
+        <v>10033</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7">
-        <v>103</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7">
-        <v>104</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7">
-        <v>105</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7">
-        <v>106</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7">
-        <v>107</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>104</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="8">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="8">
-        <v>16</v>
-      </c>
-      <c r="G22" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="8">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="8">
-        <v>18</v>
-      </c>
-      <c r="G24" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="8">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E41" s="42">
+        <v>10034</v>
+      </c>
+      <c r="F41" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="26">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" s="6" customFormat="1" spans="1:8">
+      <c r="A42" s="43">
+        <v>10034</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="D42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="26">
+        <v>1011</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="8">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="8">
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:8">
+      <c r="A43" s="28">
+        <v>10035</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="31">
+        <v>10036</v>
+      </c>
+      <c r="G43" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:8">
+      <c r="A44" s="28">
+        <v>10036</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="31">
+        <v>10037</v>
+      </c>
+      <c r="G44" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:8">
+      <c r="A45" s="28">
+        <v>10037</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="31">
+        <v>10038</v>
+      </c>
+      <c r="G45" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:8">
+      <c r="A46" s="28">
+        <v>10038</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="31">
+        <v>10039</v>
+      </c>
+      <c r="G46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:8">
+      <c r="A47" s="28">
+        <v>10039</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="31">
+        <v>10040</v>
+      </c>
+      <c r="G47" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:8">
+      <c r="A48" s="28">
+        <v>10040</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="31">
+        <v>10041</v>
+      </c>
+      <c r="G48" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:8">
+      <c r="A49" s="28">
+        <v>10041</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="31">
+        <v>10042</v>
+      </c>
+      <c r="G49" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:8">
+      <c r="A50" s="28">
+        <v>10042</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="31">
+        <v>10043</v>
+      </c>
+      <c r="G50" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:8">
+      <c r="A51" s="28">
+        <v>10043</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="31">
+        <v>10044</v>
+      </c>
+      <c r="G51" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:8">
+      <c r="A52" s="28">
+        <v>10044</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="31">
+        <v>10045</v>
+      </c>
+      <c r="G52" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:8">
+      <c r="A53" s="28">
+        <v>10045</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="31">
+        <v>10046</v>
+      </c>
+      <c r="G53" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:8">
+      <c r="A54" s="28">
+        <v>10046</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="32">
+        <v>1012</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" s="7" customFormat="1" spans="1:8">
+      <c r="A55" s="33">
+        <v>10047</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F55" s="35">
+        <v>10048</v>
+      </c>
+      <c r="G55" s="36">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="1:8">
+      <c r="A56" s="33">
+        <v>10048</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>14</v>
+      <c r="E56" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="35">
+        <v>10049</v>
+      </c>
+      <c r="G56" s="36">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" s="7" customFormat="1" spans="1:8">
+      <c r="A57" s="33">
+        <v>10049</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="35">
+        <v>10050</v>
+      </c>
+      <c r="G57" s="36">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="1:8">
+      <c r="A58" s="33">
+        <v>10050</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="35">
+        <v>10051</v>
+      </c>
+      <c r="G58" s="36">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" s="7" customFormat="1" spans="1:8">
+      <c r="A59" s="33">
+        <v>10051</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="35">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="36">
+        <v>1014</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:8">
+      <c r="A60" s="28">
+        <v>10052</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="32">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:H14">
+  <sortState ref="A4:H15">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="179">
   <si>
     <t>ID</t>
   </si>
@@ -260,7 +260,7 @@
     <t>Well, take a good rest and get ready for tomorrow. Matches will become harder and harder!</t>
   </si>
   <si>
-    <t>This is the end of the first day story, more contents are in-progress</t>
+    <t>This is the end of the first day story, more contents are in-progress.</t>
   </si>
   <si>
     <t>Anybody here?</t>
@@ -312,6 +312,258 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>Hey, you! Time to wake up; go grab some breakfast.</t>
+  </si>
+  <si>
+    <t>Let's head to the dining hall.</t>
+  </si>
+  <si>
+    <t>I was here last night, and saw a weird guy sitting there... He doesn't look familiar, do you know anything about him?</t>
+  </si>
+  <si>
+    <t>Ah, do you remember any details?</t>
+  </si>
+  <si>
+    <t>Looks pretty tired, and full of stubble. Oh, and he talked about his sister</t>
+  </si>
+  <si>
+    <t>I do remember seeing someone like this before; he's always here, but no one talks with him.</t>
+  </si>
+  <si>
+    <t>This place is a bit strange, once a library, and after a mysterious locked down, it closed for a while</t>
+  </si>
+  <si>
+    <t>It eventurally became a tarvern for that stadium built next to it. Who knows where all the books go...</t>
+  </si>
+  <si>
+    <t>Is this a dining hall?</t>
+  </si>
+  <si>
+    <t>Maybe sold away in scale of pounds</t>
+  </si>
+  <si>
+    <t>Anyway, the food is free for you; just go and grab some everyday. I've got other things to do and must leave. Don't forget to go back before noon!</t>
+  </si>
+  <si>
+    <t>By the way, our sponsor, Dove, wants to tell you something important; she says she'll wait in the audience area.</t>
+  </si>
+  <si>
+    <t>Meow meow</t>
+  </si>
+  <si>
+    <t>Awwwwwww so cute!</t>
+  </si>
+  <si>
+    <t>Meow</t>
+  </si>
+  <si>
+    <t>Goodbye sweetie.</t>
+  </si>
+  <si>
+    <t>Meow!</t>
+  </si>
+  <si>
+    <t>A collar? Is that your cat?</t>
+  </si>
+  <si>
+    <t>No worry, you can never catch that ******** , just let it go. This collar is actually a translator.</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>****, stop fussing. Just take it and try to talk with my cat.</t>
+  </si>
+  <si>
+    <t>Okay, now you may get out.</t>
+  </si>
+  <si>
+    <t>Hey sweetie</t>
+  </si>
+  <si>
+    <t>Hey, **** u. Who the **** is sweetie, I'm **** GG Bond, GG the ******* Bond.</t>
+  </si>
+  <si>
+    <t>*I must say your owner is a bit more polite them you...</t>
+  </si>
+  <si>
+    <t>Mind your business! These rude ******** just walk by and pet my head. My head is not a toy.</t>
+  </si>
+  <si>
+    <t>*Pet him</t>
+  </si>
+  <si>
+    <t>Brrrrrr, keep doing it.</t>
+  </si>
+  <si>
+    <t>... Don't show me with that face.</t>
+  </si>
+  <si>
+    <t>I'm a honored and royal noble cat, okay?</t>
+  </si>
+  <si>
+    <t>... Then I shall disappear, your majestry.</t>
+  </si>
+  <si>
+    <t>Wait, you look like competiting here for the first time right? Them I'll educate you barbarian a bit.</t>
+  </si>
+  <si>
+    <t>Just tell your team, choose the right person for each match. The information of games is not secret, and there should be a way to find.</t>
+  </si>
+  <si>
+    <t>I also saw a lady running toward the control room all time.</t>
+  </si>
+  <si>
+    <t>Interesting, what is she look like?</t>
+  </si>
+  <si>
+    <t>Uh, brown hair, with a huge bowtie thing on her head.</t>
+  </si>
+  <si>
+    <t>Thanks sweetie.</t>
+  </si>
+  <si>
+    <t>Get the *** out of here... You will come back and see me, right?</t>
+  </si>
+  <si>
+    <t>Hi!</t>
+  </si>
+  <si>
+    <t>Yep, the guide told me to meet you here.</t>
+  </si>
+  <si>
+    <t>How's your first match yesterday? I was suppose to fight for the team, but you know they banned me.</t>
+  </si>
+  <si>
+    <t>Not bad...</t>
+  </si>
+  <si>
+    <t>Piece of cake!</t>
+  </si>
+  <si>
+    <t>Great, I was concerning if you could get used to it.</t>
+  </si>
+  <si>
+    <t>So... yesterday I woke up and was "conscripted" for the game, what are we even fighting for?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>I assume you ate too much breakfast and thus lost your brain and memory. Here is the official brochure.</t>
+  </si>
+  <si>
+    <t>(The game is for all teams over the continent, and most of them are formed by guilds, like magician guilds. Then I guess I'm also in one of them.)</t>
+  </si>
+  <si>
+    <t>(The game, as the biggest one, is only held when there's no war going on, normally every four year)</t>
+  </si>
+  <si>
+    <t>(It seems that guilds are basically mercenary groups, taking quests and doing anything possible)</t>
+  </si>
+  <si>
+    <t>(Then there should be members focusing on battle, and perhaps some for all other professions, researches and logistics)</t>
+  </si>
+  <si>
+    <t>Anyway, technically as a newbie you cannot register as a player.We applied for a waive so that you can replace my position.</t>
+  </si>
+  <si>
+    <t>For all the sponsorship reason?</t>
+  </si>
+  <si>
+    <t>As you know, being in the guild is just my part-time hobby; most of the time I have to be at my industry and manufacturing weapon stuff.</t>
+  </si>
+  <si>
+    <t>I make customized equipments, and this one was designed for you - to save your memory.</t>
+  </si>
+  <si>
+    <t>Me?</t>
+  </si>
+  <si>
+    <t>Now I feel like you really need this. Each time you flash back the time you will forget something.</t>
+  </si>
+  <si>
+    <t>I don't know what happened this time, but you almost forgot everything, bruh. You can use this to set a reminder to yourself in the past.</t>
+  </si>
+  <si>
+    <t>But it only works once everyday, and only at a specific time! For example, if you leave something at 10:30 in the morning...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then after you go to the past, you can only read it when you reach 10:30. I'm also trying to leave a note to the future, wanna try? </t>
+  </si>
+  <si>
+    <t>Maybe not today</t>
+  </si>
+  <si>
+    <t>Remind myself to grab the free breakfast tomorrow morning!</t>
+  </si>
+  <si>
+    <t>That's why I call our team guide the professor of seeking for free meals...</t>
+  </si>
+  <si>
+    <t>I calculated a bit and today's match will full of clusters of targets to shoot down, we should some one good at this, but don't let other teams know!</t>
+  </si>
+  <si>
+    <t>Sure, thanks! See ya</t>
+  </si>
+  <si>
+    <t>Hi...?</t>
+  </si>
+  <si>
+    <t>Ah! Are you talking to me?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>I'm...I'm the staff here</t>
+  </si>
+  <si>
+    <t>Are you here for maintenance? Today's matches are finished.</t>
+  </si>
+  <si>
+    <t>Just worry about the connection stability, so I'm doing a regular check.</t>
+  </si>
+  <si>
+    <t>Don't be nervous! I'm just a player wlaking around; here's my Game ID. May I have your name?</t>
+  </si>
+  <si>
+    <t>Your name is... 48?</t>
+  </si>
+  <si>
+    <t>No, that's my work number</t>
+  </si>
+  <si>
+    <t>Could I call your, perhaps, real name?</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Oh sorry, I didn't notice you are a girl</t>
+  </si>
+  <si>
+    <t>That's fine, I'm already used to it</t>
+  </si>
+  <si>
+    <t>All the audience and players are going to enjoy their night, but sorry to hear that you still have to work</t>
+  </si>
+  <si>
+    <t>Well, right now it's voluntary work; I just feel like the connection stability is not as stable recently.</t>
+  </si>
+  <si>
+    <t>Connection Stability? You mean the connection between the players and the server thing?</t>
+  </si>
+  <si>
+    <t>Yes,it drops to 80% today, you can check at the one in your team room</t>
+  </si>
+  <si>
+    <t>Is it something severe?</t>
+  </si>
+  <si>
+    <t>Since we out the matches in the virtual simulation, like a world buble, it has better to be 100% stable.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +763,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +1115,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,16 +1139,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -881,25 +1157,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,8 +1226,20 @@
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +1256,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1003,100 +1291,139 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,1997 +1959,2889 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="136.222222222222" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="22.4444444444444" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.4444444444444" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.3333333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.3333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10" style="10" customWidth="1"/>
+    <col min="2" max="2" width="149.222222222222" customWidth="1"/>
+    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="11.4444444444444" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.7777777777778" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.4444444444444" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.3333333333333" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="13">
+      <c r="A3" s="17">
         <v>100</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="20">
         <v>999</v>
       </c>
-      <c r="E3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="E3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="17">
         <v>101</v>
       </c>
-      <c r="G3" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="13">
+      <c r="A4" s="17">
         <v>101</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="C4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="20">
         <v>999</v>
       </c>
-      <c r="E4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="17">
         <v>102</v>
       </c>
-      <c r="G4" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="13">
+      <c r="A5" s="17">
         <v>102</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20">
         <v>999</v>
       </c>
-      <c r="E5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="17">
         <v>103</v>
       </c>
-      <c r="G5" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="13">
+      <c r="A6" s="17">
         <v>103</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="20">
         <v>999</v>
       </c>
-      <c r="E6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="E6" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="17">
         <v>104</v>
       </c>
-      <c r="G6" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:8">
-      <c r="A7" s="13">
+      <c r="A7" s="17">
         <v>104</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20">
         <v>999</v>
       </c>
-      <c r="E7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="E7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:8">
-      <c r="A9" s="23">
+      <c r="A9" s="27">
         <v>10001</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="C9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="28">
         <v>0</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="27">
         <v>10002</v>
       </c>
-      <c r="G9" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:8">
-      <c r="A10" s="23">
+      <c r="A10" s="27">
         <v>10002</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:8">
-      <c r="A11" s="23">
+      <c r="A11" s="27">
         <v>10003</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="28">
         <v>0</v>
       </c>
-      <c r="E11" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="E11" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="27">
         <v>10005</v>
       </c>
-      <c r="G11" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="G11" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:8">
-      <c r="A12" s="23">
+      <c r="A12" s="27">
         <v>10004</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="28">
         <v>0</v>
       </c>
-      <c r="E12" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E12" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="27">
         <v>10006</v>
       </c>
-      <c r="G12" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:8">
-      <c r="A13" s="23">
+      <c r="A13" s="27">
         <v>10005</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="E13" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="27">
         <v>-1</v>
       </c>
       <c r="G13" s="2">
         <v>1001</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:8">
-      <c r="A14" s="23">
+      <c r="A14" s="27">
         <v>10006</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E14" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="27">
         <v>-1</v>
       </c>
       <c r="G14" s="2">
         <v>1001</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:8">
-      <c r="A15" s="23">
+      <c r="A15" s="27">
         <v>10007</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="E15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:8">
-      <c r="A16" s="26">
+      <c r="A16" s="30">
         <v>10008</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="28">
+      <c r="C16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="32">
         <v>999</v>
       </c>
-      <c r="E16" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="E16" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="30">
         <v>10009</v>
       </c>
-      <c r="G16" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:8">
-      <c r="A17" s="26">
+      <c r="A17" s="30">
         <v>10009</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="28">
+      <c r="C17" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="32">
         <v>999</v>
       </c>
-      <c r="E17" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="26">
+      <c r="E17" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="30">
         <v>10010</v>
       </c>
-      <c r="G17" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:8">
-      <c r="A18" s="26">
+      <c r="A18" s="30">
         <v>10010</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="C18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="32">
         <v>999</v>
       </c>
-      <c r="E18" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="26">
+      <c r="E18" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="30">
         <v>100</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="33">
         <v>1004</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:8">
-      <c r="A19" s="26">
+      <c r="A19" s="30">
         <v>10011</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="31">
+      <c r="C19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="35">
         <v>998</v>
       </c>
-      <c r="E19" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="30" t="s">
+      <c r="E19" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="30">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:8">
-      <c r="A20" s="32">
+      <c r="A20" s="36">
         <v>10012</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="C20" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="38">
         <v>0</v>
       </c>
-      <c r="E20" s="32">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="32">
+      <c r="E20" s="36">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="36">
         <v>10012</v>
       </c>
-      <c r="G20" s="35">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="36" t="s">
+      <c r="G20" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:8">
-      <c r="A21" s="32">
+      <c r="A21" s="36">
         <v>10013</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="34">
+      <c r="C21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="38">
         <v>0</v>
       </c>
-      <c r="E21" s="32">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="32">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="35">
+      <c r="E21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="39">
         <v>1006</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:8">
-      <c r="A22" s="26">
+      <c r="A22" s="30">
         <v>10014</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="31">
+      <c r="C22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="35">
         <v>1001</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="F22" s="30">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:8">
-      <c r="A23" s="26">
+      <c r="A23" s="30">
         <v>10015</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="35">
         <v>0</v>
       </c>
-      <c r="E23" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="26">
+      <c r="E23" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="30">
         <v>10017</v>
       </c>
-      <c r="G23" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:8">
-      <c r="A24" s="26">
+      <c r="A24" s="30">
         <v>10016</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="35">
         <v>0</v>
       </c>
-      <c r="E24" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="26">
+      <c r="E24" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="30">
         <v>10018</v>
       </c>
-      <c r="G24" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:8">
-      <c r="A25" s="26">
+      <c r="A25" s="30">
         <v>10017</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="C25" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="35">
         <v>1001</v>
       </c>
-      <c r="E25" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="26">
+      <c r="E25" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="30">
         <v>10018</v>
       </c>
-      <c r="G25" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:8">
-      <c r="A26" s="26">
+      <c r="A26" s="30">
         <v>10018</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="31">
+      <c r="C26" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="35">
         <v>1001</v>
       </c>
-      <c r="E26" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="26">
+      <c r="E26" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="30">
         <v>10019</v>
       </c>
-      <c r="G26" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="30" t="s">
+      <c r="G26" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:8">
-      <c r="A27" s="26">
+      <c r="A27" s="30">
         <v>10019</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="C27" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="35">
         <v>0</v>
       </c>
-      <c r="E27" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="26">
+      <c r="E27" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="30">
         <v>10020</v>
       </c>
-      <c r="G27" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H27" s="30" t="s">
+      <c r="G27" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:8">
-      <c r="A28" s="26">
+      <c r="A28" s="30">
         <v>10020</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="31">
+      <c r="C28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="35">
         <v>1001</v>
       </c>
-      <c r="E28" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="26">
+      <c r="E28" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="30">
         <v>10021</v>
       </c>
-      <c r="G28" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="30" t="s">
+      <c r="G28" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:8">
-      <c r="A29" s="26">
+      <c r="A29" s="30">
         <v>10021</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="31">
+      <c r="C29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="35">
         <v>1001</v>
       </c>
-      <c r="E29" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="26">
+      <c r="E29" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="30">
         <v>10022</v>
       </c>
-      <c r="G29" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="30" t="s">
+      <c r="G29" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" spans="1:8">
-      <c r="A30" s="26">
+      <c r="A30" s="30">
         <v>10022</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="31">
+      <c r="C30" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="35">
         <v>1001</v>
       </c>
-      <c r="E30" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="26">
+      <c r="E30" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="30">
         <v>10023</v>
       </c>
-      <c r="G30" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="30" t="s">
+      <c r="G30" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" spans="1:8">
-      <c r="A31" s="26">
+      <c r="A31" s="30">
         <v>10023</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="31">
+      <c r="C31" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="35">
         <v>0</v>
       </c>
-      <c r="E31" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="26">
+      <c r="E31" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="30">
         <v>10024</v>
       </c>
-      <c r="G31" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:8">
-      <c r="A32" s="26">
+      <c r="A32" s="30">
         <v>10024</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="31">
+      <c r="C32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="35">
         <v>1001</v>
       </c>
-      <c r="E32" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F32" s="26">
+      <c r="E32" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="30">
         <v>10025</v>
       </c>
-      <c r="G32" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="30" t="s">
+      <c r="G32" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:8">
-      <c r="A33" s="26">
+      <c r="A33" s="30">
         <v>10025</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="31">
+      <c r="C33" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="35">
         <v>1001</v>
       </c>
-      <c r="E33" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="26">
+      <c r="E33" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="30">
         <v>10026</v>
       </c>
-      <c r="G33" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:8">
-      <c r="A34" s="26">
+      <c r="A34" s="30">
         <v>10026</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="31">
+      <c r="C34" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="35">
         <v>0</v>
       </c>
-      <c r="E34" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="26">
+      <c r="E34" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="30">
         <v>10027</v>
       </c>
-      <c r="G34" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="30" t="s">
+      <c r="G34" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:8">
-      <c r="A35" s="26">
+      <c r="A35" s="30">
         <v>10027</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="31">
+      <c r="C35" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="35">
         <v>1001</v>
       </c>
-      <c r="E35" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="26">
+      <c r="E35" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="30">
         <v>10028</v>
       </c>
-      <c r="G35" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="30" t="s">
+      <c r="G35" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:8">
-      <c r="A36" s="26">
+      <c r="A36" s="30">
         <v>10028</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="31">
+      <c r="C36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="35">
         <v>0</v>
       </c>
-      <c r="E36" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="26">
+      <c r="E36" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="30">
         <v>10029</v>
       </c>
-      <c r="G36" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="30" t="s">
+      <c r="G36" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:8">
-      <c r="A37" s="26">
+      <c r="A37" s="30">
         <v>10029</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="31">
+      <c r="C37" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="35">
         <v>1001</v>
       </c>
-      <c r="E37" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="E37" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="30">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="33">
         <v>1008</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:8">
-      <c r="A38" s="23">
+      <c r="A38" s="27">
         <v>10030</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F38" s="23">
+      <c r="E38" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="27">
         <v>10031</v>
       </c>
-      <c r="G38" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="20" t="s">
+      <c r="G38" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:8">
-      <c r="A39" s="23">
+      <c r="A39" s="27">
         <v>10031</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="23">
+      <c r="E39" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="27">
         <v>10032</v>
       </c>
-      <c r="G39" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="20" t="s">
+      <c r="G39" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:8">
-      <c r="A40" s="23">
+      <c r="A40" s="27">
         <v>10032</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="22" t="s">
+      <c r="C40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="23">
+      <c r="E40" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="27">
         <v>10033</v>
       </c>
-      <c r="G40" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="20" t="s">
+      <c r="G40" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:8">
-      <c r="A41" s="23">
+      <c r="A41" s="27">
         <v>10033</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="24">
+      <c r="C41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="28">
         <v>0</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="27">
         <v>10034</v>
       </c>
-      <c r="F41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="25">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="20" t="s">
+      <c r="F41" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="29">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
-      <c r="A42" s="23">
+      <c r="A42" s="27">
         <v>10034</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="28">
         <v>0</v>
       </c>
-      <c r="E42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="25">
+      <c r="E42" s="27">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="29">
         <v>1011</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" spans="1:8">
-      <c r="A43" s="26">
+      <c r="A43" s="30">
         <v>10035</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="31">
+      <c r="C43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="35">
         <v>1002</v>
       </c>
-      <c r="E43" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="26">
+      <c r="E43" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="30">
         <v>10036</v>
       </c>
-      <c r="G43" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="30" t="s">
+      <c r="G43" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:8">
-      <c r="A44" s="26">
+      <c r="A44" s="30">
         <v>10036</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="31">
+      <c r="C44" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="35">
         <v>0</v>
       </c>
-      <c r="E44" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="26">
+      <c r="E44" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="30">
         <v>10037</v>
       </c>
-      <c r="G44" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="30" t="s">
+      <c r="G44" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" spans="1:8">
-      <c r="A45" s="26">
+      <c r="A45" s="30">
         <v>10037</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="31">
+      <c r="C45" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="35">
         <v>1002</v>
       </c>
-      <c r="E45" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F45" s="26">
+      <c r="E45" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="30">
         <v>10038</v>
       </c>
-      <c r="G45" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="30" t="s">
+      <c r="G45" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:8">
-      <c r="A46" s="26">
+      <c r="A46" s="30">
         <v>10038</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="31">
+      <c r="C46" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="35">
         <v>0</v>
       </c>
-      <c r="E46" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="26">
+      <c r="E46" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="30">
         <v>10039</v>
       </c>
-      <c r="G46" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="30" t="s">
+      <c r="G46" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" spans="1:8">
-      <c r="A47" s="26">
+      <c r="A47" s="30">
         <v>10039</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="31">
+      <c r="C47" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="35">
         <v>0</v>
       </c>
-      <c r="E47" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F47" s="26">
+      <c r="E47" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="30">
         <v>10040</v>
       </c>
-      <c r="G47" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H47" s="30" t="s">
+      <c r="G47" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" spans="1:8">
-      <c r="A48" s="26">
+      <c r="A48" s="30">
         <v>10040</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="31">
+      <c r="C48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="35">
         <v>0</v>
       </c>
-      <c r="E48" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F48" s="26">
+      <c r="E48" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="30">
         <v>10041</v>
       </c>
-      <c r="G48" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" spans="1:8">
-      <c r="A49" s="26">
+      <c r="A49" s="30">
         <v>10041</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="31">
+      <c r="C49" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="35">
         <v>1002</v>
       </c>
-      <c r="E49" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F49" s="26">
+      <c r="E49" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="30">
         <v>10042</v>
       </c>
-      <c r="G49" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H49" s="30" t="s">
+      <c r="G49" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" spans="1:8">
-      <c r="A50" s="26">
+      <c r="A50" s="30">
         <v>10042</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="31">
+      <c r="C50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="35">
         <v>1002</v>
       </c>
-      <c r="E50" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F50" s="26">
+      <c r="E50" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="30">
         <v>10043</v>
       </c>
-      <c r="G50" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H50" s="30" t="s">
+      <c r="G50" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" spans="1:8">
-      <c r="A51" s="26">
+      <c r="A51" s="30">
         <v>10043</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="31">
+      <c r="C51" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="35">
         <v>0</v>
       </c>
-      <c r="E51" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F51" s="26">
+      <c r="E51" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="30">
         <v>10044</v>
       </c>
-      <c r="G51" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H51" s="30" t="s">
+      <c r="G51" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" spans="1:8">
-      <c r="A52" s="26">
+      <c r="A52" s="30">
         <v>10044</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="31">
+      <c r="C52" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="35">
         <v>1002</v>
       </c>
-      <c r="E52" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F52" s="26">
+      <c r="E52" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="30">
         <v>10045</v>
       </c>
-      <c r="G52" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="30" t="s">
+      <c r="G52" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" spans="1:8">
-      <c r="A53" s="26">
+      <c r="A53" s="30">
         <v>10045</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="31">
+      <c r="C53" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="35">
         <v>0</v>
       </c>
-      <c r="E53" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F53" s="26">
+      <c r="E53" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="30">
         <v>10046</v>
       </c>
-      <c r="G53" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H53" s="30" t="s">
+      <c r="G53" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1" spans="1:8">
-      <c r="A54" s="26">
+      <c r="A54" s="30">
         <v>10046</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="31">
+      <c r="C54" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="35">
         <v>1002</v>
       </c>
-      <c r="E54" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F54" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="29">
+      <c r="E54" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="30">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="33">
         <v>1012</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:8">
-      <c r="A55" s="32">
+      <c r="A55" s="36">
         <v>10047</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="34">
+      <c r="C55" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="38">
         <v>0</v>
       </c>
-      <c r="E55" s="32">
-        <v>-1</v>
-      </c>
-      <c r="F55" s="32">
+      <c r="E55" s="36">
+        <v>-1</v>
+      </c>
+      <c r="F55" s="36">
         <v>10048</v>
       </c>
-      <c r="G55" s="35">
-        <v>-1</v>
-      </c>
-      <c r="H55" s="36" t="s">
+      <c r="G55" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:8">
-      <c r="A56" s="32">
+      <c r="A56" s="36">
         <v>10048</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="38" t="s">
+      <c r="C56" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="32">
-        <v>-1</v>
-      </c>
-      <c r="F56" s="32">
+      <c r="E56" s="36">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="36">
         <v>10049</v>
       </c>
-      <c r="G56" s="35">
-        <v>-1</v>
-      </c>
-      <c r="H56" s="36" t="s">
+      <c r="G56" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" spans="1:8">
-      <c r="A57" s="32">
+      <c r="A57" s="36">
         <v>10049</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="34">
+      <c r="C57" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="38">
         <v>0</v>
       </c>
-      <c r="E57" s="32">
-        <v>-1</v>
-      </c>
-      <c r="F57" s="32">
+      <c r="E57" s="36">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="36">
         <v>10050</v>
       </c>
-      <c r="G57" s="35">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="36" t="s">
+      <c r="G57" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" spans="1:8">
-      <c r="A58" s="32">
+      <c r="A58" s="36">
         <v>10050</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="38" t="s">
+      <c r="C58" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="32">
-        <v>-1</v>
-      </c>
-      <c r="F58" s="32">
+      <c r="E58" s="36">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="36">
         <v>10051</v>
       </c>
-      <c r="G58" s="35">
-        <v>-1</v>
-      </c>
-      <c r="H58" s="36" t="s">
+      <c r="G58" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:8">
-      <c r="A59" s="32">
+      <c r="A59" s="36">
         <v>10051</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="38" t="s">
+      <c r="C59" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="32">
-        <v>-1</v>
-      </c>
-      <c r="F59" s="32">
-        <v>-1</v>
-      </c>
-      <c r="G59" s="35">
+      <c r="E59" s="36">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="39">
         <v>1014</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1" spans="1:8">
-      <c r="A60" s="26">
+      <c r="A60" s="30">
         <v>10052</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="31">
+      <c r="C60" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="35">
         <v>0</v>
       </c>
-      <c r="E60" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F60" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G60" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H60" s="30" t="s">
+      <c r="E60" s="30">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="30">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="33">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:8">
-      <c r="A61" s="39">
+      <c r="A61" s="43">
         <v>10053</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="41">
+      <c r="C61" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="45">
         <v>0</v>
       </c>
-      <c r="E61" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F61" s="39">
+      <c r="E61" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="43">
         <v>10054</v>
       </c>
-      <c r="G61" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H61" s="43" t="s">
+      <c r="G61" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H61" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:8">
-      <c r="A62" s="39">
+      <c r="A62" s="43">
         <v>10054</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="41">
+      <c r="C62" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="45">
         <v>1003</v>
       </c>
-      <c r="E62" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F62" s="39">
+      <c r="E62" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="43">
         <v>10055</v>
       </c>
-      <c r="G62" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H62" s="43" t="s">
+      <c r="G62" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H62" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" s="5" customFormat="1" spans="1:8">
-      <c r="A63" s="39">
+      <c r="A63" s="43">
         <v>10055</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="41">
+      <c r="C63" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="45">
         <v>0</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="39">
-        <v>-1</v>
-      </c>
-      <c r="G63" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H63" s="43" t="s">
+      <c r="F63" s="43">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H63" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" s="5" customFormat="1" spans="1:8">
-      <c r="A64" s="39">
+      <c r="A64" s="43">
         <v>10056</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="45">
         <v>0</v>
       </c>
-      <c r="E64" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F64" s="39">
+      <c r="E64" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F64" s="43">
         <v>10058</v>
       </c>
-      <c r="G64" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H64" s="43" t="s">
+      <c r="G64" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H64" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" s="5" customFormat="1" spans="1:8">
-      <c r="A65" s="39">
+      <c r="A65" s="43">
         <v>10057</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65" s="45">
         <v>0</v>
       </c>
-      <c r="E65" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F65" s="39">
+      <c r="E65" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F65" s="43">
         <v>10058</v>
       </c>
-      <c r="G65" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H65" s="43" t="s">
+      <c r="G65" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H65" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" s="5" customFormat="1" spans="1:8">
-      <c r="A66" s="39">
+      <c r="A66" s="43">
         <v>10058</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="41">
+      <c r="C66" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="45">
         <v>1003</v>
       </c>
-      <c r="E66" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F66" s="39">
+      <c r="E66" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="43">
         <v>10059</v>
       </c>
-      <c r="G66" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H66" s="43" t="s">
+      <c r="G66" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H66" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="1" spans="1:8">
-      <c r="A67" s="39">
+      <c r="A67" s="43">
         <v>10059</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="41">
+      <c r="C67" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="45">
         <v>0</v>
       </c>
-      <c r="E67" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F67" s="39">
+      <c r="E67" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F67" s="43">
         <v>10060</v>
       </c>
-      <c r="G67" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H67" s="43" t="s">
+      <c r="G67" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H67" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="1" spans="1:8">
-      <c r="A68" s="39">
+      <c r="A68" s="43">
         <v>10060</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="41">
+      <c r="C68" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="45">
         <v>1003</v>
       </c>
-      <c r="E68" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F68" s="39">
+      <c r="E68" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F68" s="43">
         <v>10061</v>
       </c>
-      <c r="G68" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H68" s="43" t="s">
+      <c r="G68" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H68" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" s="5" customFormat="1" spans="1:8">
-      <c r="A69" s="39">
+      <c r="A69" s="43">
         <v>10061</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="41">
+      <c r="C69" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="45">
         <v>0</v>
       </c>
-      <c r="E69" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F69" s="39">
+      <c r="E69" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F69" s="43">
         <v>10062</v>
       </c>
-      <c r="G69" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H69" s="43" t="s">
+      <c r="G69" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H69" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" s="5" customFormat="1" spans="1:8">
-      <c r="A70" s="39">
+      <c r="A70" s="43">
         <v>10062</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="41">
+      <c r="C70" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="45">
         <v>1003</v>
       </c>
-      <c r="E70" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F70" s="39">
+      <c r="E70" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F70" s="43">
         <v>10063</v>
       </c>
-      <c r="G70" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H70" s="43" t="s">
+      <c r="G70" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" s="5" customFormat="1" spans="1:8">
-      <c r="A71" s="39">
+      <c r="A71" s="43">
         <v>10063</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="41">
+      <c r="C71" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="45">
         <v>0</v>
       </c>
-      <c r="E71" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F71" s="39">
+      <c r="E71" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F71" s="43">
         <v>10064</v>
       </c>
-      <c r="G71" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H71" s="43" t="s">
+      <c r="G71" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H71" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" s="5" customFormat="1" spans="1:8">
-      <c r="A72" s="39">
+      <c r="A72" s="43">
         <v>10064</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="41">
+      <c r="C72" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="45">
         <v>1003</v>
       </c>
-      <c r="E72" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F72" s="39">
+      <c r="E72" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="43">
         <v>10065</v>
       </c>
-      <c r="G72" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H72" s="43" t="s">
+      <c r="G72" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H72" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" s="5" customFormat="1" spans="1:8">
-      <c r="A73" s="39">
+      <c r="A73" s="43">
         <v>10065</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="41">
+      <c r="C73" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="45">
         <v>0</v>
       </c>
-      <c r="E73" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F73" s="39">
+      <c r="E73" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F73" s="43">
         <v>10066</v>
       </c>
-      <c r="G73" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H73" s="43" t="s">
+      <c r="G73" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H73" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" s="5" customFormat="1" spans="1:8">
-      <c r="A74" s="39">
+      <c r="A74" s="43">
         <v>10066</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="41">
+      <c r="C74" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="45">
         <v>1003</v>
       </c>
-      <c r="E74" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F74" s="39">
+      <c r="E74" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="43">
         <v>10067</v>
       </c>
-      <c r="G74" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H74" s="43" t="s">
+      <c r="G74" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H74" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" s="5" customFormat="1" spans="1:8">
-      <c r="A75" s="39">
+      <c r="A75" s="43">
         <v>10067</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="41">
+      <c r="C75" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="45">
         <v>0</v>
       </c>
-      <c r="E75" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F75" s="39">
+      <c r="E75" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="43">
         <v>10068</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="46">
         <v>1018</v>
       </c>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="76" s="5" customFormat="1" spans="1:8">
-      <c r="A76" s="39">
+      <c r="A76" s="43">
         <v>10068</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="41">
+      <c r="C76" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="45">
         <v>1003</v>
       </c>
-      <c r="E76" s="39">
-        <v>-1</v>
-      </c>
-      <c r="F76" s="39">
-        <v>-1</v>
-      </c>
-      <c r="G76" s="42">
-        <v>-1</v>
-      </c>
-      <c r="H76" s="43" t="s">
+      <c r="E76" s="43">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="43">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="46">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="47" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="77" s="6" customFormat="1" spans="1:7">
+      <c r="A77" s="49">
+        <v>20000</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" s="50"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="51"/>
+    </row>
+    <row r="78" s="6" customFormat="1" spans="1:7">
+      <c r="A78" s="49">
+        <v>20001</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="50"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="51"/>
+    </row>
+    <row r="79" s="6" customFormat="1" spans="1:7">
+      <c r="A79" s="49">
+        <v>20002</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="50"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="51"/>
+    </row>
+    <row r="80" s="6" customFormat="1" spans="1:7">
+      <c r="A80" s="49">
+        <v>20003</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="50"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="51"/>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="1:7">
+      <c r="A81" s="49">
+        <v>20004</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="50"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="51"/>
+    </row>
+    <row r="82" s="6" customFormat="1" spans="1:7">
+      <c r="A82" s="49">
+        <v>20005</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="50"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="51"/>
+    </row>
+    <row r="83" s="6" customFormat="1" spans="1:7">
+      <c r="A83" s="49">
+        <v>20006</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="50"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="51"/>
+    </row>
+    <row r="84" s="6" customFormat="1" spans="1:7">
+      <c r="A84" s="49">
+        <v>20007</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="50"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="51"/>
+    </row>
+    <row r="85" s="6" customFormat="1" spans="1:7">
+      <c r="A85" s="49">
+        <v>20008</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="50"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="51"/>
+    </row>
+    <row r="86" s="6" customFormat="1" spans="1:7">
+      <c r="A86" s="49">
+        <v>20009</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="50"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="51"/>
+    </row>
+    <row r="87" s="6" customFormat="1" spans="1:7">
+      <c r="A87" s="49">
+        <v>20010</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="50"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="51"/>
+    </row>
+    <row r="88" s="6" customFormat="1" spans="1:7">
+      <c r="A88" s="49">
+        <v>20011</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="50"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="51"/>
+    </row>
+    <row r="89" s="7" customFormat="1" spans="1:7">
+      <c r="A89" s="52">
+        <v>20020</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="53"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="54"/>
+    </row>
+    <row r="90" s="7" customFormat="1" spans="1:7">
+      <c r="A90" s="52">
+        <v>20021</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="53"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="54"/>
+    </row>
+    <row r="91" s="7" customFormat="1" spans="1:7">
+      <c r="A91" s="52">
+        <v>20022</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="53"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
+    </row>
+    <row r="92" s="7" customFormat="1" spans="1:7">
+      <c r="A92" s="52">
+        <v>20023</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="53"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="54"/>
+    </row>
+    <row r="93" s="7" customFormat="1" spans="1:7">
+      <c r="A93" s="52">
+        <v>20024</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="53"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="54"/>
+    </row>
+    <row r="94" s="8" customFormat="1" spans="1:7">
+      <c r="A94" s="55">
+        <v>20030</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="56"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="57"/>
+    </row>
+    <row r="95" s="8" customFormat="1" spans="1:7">
+      <c r="A95" s="55">
+        <v>20031</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="56"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
+    </row>
+    <row r="96" s="8" customFormat="1" spans="1:7">
+      <c r="A96" s="55">
+        <v>20032</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="56"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="57"/>
+    </row>
+    <row r="97" s="8" customFormat="1" spans="1:7">
+      <c r="A97" s="55">
+        <v>20033</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="56"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="57"/>
+    </row>
+    <row r="98" s="8" customFormat="1" spans="1:7">
+      <c r="A98" s="55">
+        <v>20034</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="56"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="57"/>
+    </row>
+    <row r="99" s="9" customFormat="1" spans="1:7">
+      <c r="A99" s="52">
+        <v>20040</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="58"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="60"/>
+    </row>
+    <row r="100" s="9" customFormat="1" spans="1:7">
+      <c r="A100" s="52">
+        <v>20041</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="58"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="60"/>
+    </row>
+    <row r="101" s="9" customFormat="1" spans="1:7">
+      <c r="A101" s="52">
+        <v>20042</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="58"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="60"/>
+    </row>
+    <row r="102" s="9" customFormat="1" spans="1:7">
+      <c r="A102" s="52">
+        <v>20043</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="58"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="60"/>
+    </row>
+    <row r="103" s="9" customFormat="1" spans="1:7">
+      <c r="A103" s="52">
+        <v>20044</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="58"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="60"/>
+    </row>
+    <row r="104" s="9" customFormat="1" spans="1:7">
+      <c r="A104" s="52">
+        <v>20045</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="58"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="60"/>
+    </row>
+    <row r="105" s="9" customFormat="1" spans="1:7">
+      <c r="A105" s="52">
+        <v>20046</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" s="58"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="60"/>
+    </row>
+    <row r="106" s="9" customFormat="1" spans="1:7">
+      <c r="A106" s="52">
+        <v>20047</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="58"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="60"/>
+    </row>
+    <row r="107" s="9" customFormat="1" spans="1:7">
+      <c r="A107" s="52">
+        <v>20048</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="60"/>
+    </row>
+    <row r="108" s="9" customFormat="1" spans="1:7">
+      <c r="A108" s="52">
+        <v>20049</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="58"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="60"/>
+    </row>
+    <row r="109" s="9" customFormat="1" spans="1:7">
+      <c r="A109" s="52">
+        <v>20050</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109" s="58"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="60"/>
+    </row>
+    <row r="110" s="9" customFormat="1" spans="1:7">
+      <c r="A110" s="52">
+        <v>20051</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="58"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="60"/>
+    </row>
+    <row r="111" s="9" customFormat="1" spans="1:7">
+      <c r="A111" s="52">
+        <v>20052</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="58"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="60"/>
+    </row>
+    <row r="112" s="9" customFormat="1" spans="1:7">
+      <c r="A112" s="52">
+        <v>20053</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="58"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="60"/>
+    </row>
+    <row r="113" s="9" customFormat="1" spans="1:7">
+      <c r="A113" s="52">
+        <v>20054</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="60"/>
+    </row>
+    <row r="114" s="9" customFormat="1" spans="1:7">
+      <c r="A114" s="52">
+        <v>20055</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="58"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="60"/>
+    </row>
+    <row r="115" s="9" customFormat="1" spans="1:7">
+      <c r="A115" s="52">
+        <v>20056</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D115" s="58"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="60"/>
+    </row>
+    <row r="116" s="6" customFormat="1" spans="1:7">
+      <c r="A116" s="49">
+        <v>20070</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" s="50"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="51"/>
+    </row>
+    <row r="117" s="6" customFormat="1" spans="1:7">
+      <c r="A117" s="49">
+        <v>20071</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="51"/>
+    </row>
+    <row r="118" s="6" customFormat="1" spans="1:7">
+      <c r="A118" s="49">
+        <v>20072</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" s="50"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="51"/>
+    </row>
+    <row r="119" s="6" customFormat="1" spans="1:7">
+      <c r="A119" s="49">
+        <v>20073</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119" s="50"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="51"/>
+    </row>
+    <row r="120" s="6" customFormat="1" spans="1:7">
+      <c r="A120" s="49">
+        <v>20074</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D120" s="50"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="51"/>
+    </row>
+    <row r="121" s="6" customFormat="1" spans="1:7">
+      <c r="A121" s="49">
+        <v>20075</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" s="50"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="51"/>
+    </row>
+    <row r="122" s="6" customFormat="1" spans="1:7">
+      <c r="A122" s="49">
+        <v>20076</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" s="50"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="51"/>
+    </row>
+    <row r="123" s="6" customFormat="1" spans="1:7">
+      <c r="A123" s="49">
+        <v>20077</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" s="50"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="51"/>
+    </row>
+    <row r="124" s="6" customFormat="1" spans="1:7">
+      <c r="A124" s="49">
+        <v>20078</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D124" s="50"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="51"/>
+    </row>
+    <row r="125" s="6" customFormat="1" spans="1:7">
+      <c r="A125" s="49">
+        <v>20079</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" s="50"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="51"/>
+    </row>
+    <row r="126" s="6" customFormat="1" spans="1:7">
+      <c r="A126" s="49">
+        <v>20080</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D126" s="50"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="51"/>
+    </row>
+    <row r="127" s="6" customFormat="1" spans="1:7">
+      <c r="A127" s="49">
+        <v>20081</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D127" s="50"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="51"/>
+    </row>
+    <row r="128" s="6" customFormat="1" spans="1:7">
+      <c r="A128" s="49">
+        <v>20082</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D128" s="50"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="51"/>
+    </row>
+    <row r="129" s="6" customFormat="1" spans="1:7">
+      <c r="A129" s="49">
+        <v>20083</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D129" s="50"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="51"/>
+    </row>
+    <row r="130" s="6" customFormat="1" spans="1:7">
+      <c r="A130" s="49">
+        <v>20084</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="50"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="51"/>
+    </row>
+    <row r="131" s="6" customFormat="1" spans="1:7">
+      <c r="A131" s="49">
+        <v>20085</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D131" s="50"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="51"/>
+    </row>
+    <row r="132" s="6" customFormat="1" spans="1:7">
+      <c r="A132" s="49">
+        <v>20086</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" s="50"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="51"/>
+    </row>
+    <row r="133" s="6" customFormat="1" spans="1:7">
+      <c r="A133" s="49">
+        <v>20087</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" s="50"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="51"/>
+    </row>
+    <row r="134" s="6" customFormat="1" spans="1:7">
+      <c r="A134" s="49">
+        <v>20088</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="50"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="51"/>
+    </row>
+    <row r="135" s="6" customFormat="1" spans="1:7">
+      <c r="A135" s="49">
+        <v>20089</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D135" s="50"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="51"/>
+    </row>
+    <row r="136" s="6" customFormat="1" spans="1:7">
+      <c r="A136" s="49">
+        <v>20090</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" s="50"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="51"/>
+    </row>
+    <row r="137" s="6" customFormat="1" spans="1:7">
+      <c r="A137" s="49">
+        <v>20091</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="50"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="51"/>
+    </row>
+    <row r="138" s="6" customFormat="1" spans="1:7">
+      <c r="A138" s="49">
+        <v>20092</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="50"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="51"/>
+    </row>
+    <row r="139" s="6" customFormat="1" spans="1:7">
+      <c r="A139" s="49">
+        <v>20093</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D139" s="50"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="51"/>
+    </row>
+    <row r="140" s="6" customFormat="1" spans="1:7">
+      <c r="A140" s="49">
+        <v>20094</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" s="50"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="51"/>
+    </row>
+    <row r="141" s="6" customFormat="1" spans="1:7">
+      <c r="A141" s="49">
+        <v>20095</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141" s="50"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="51"/>
+    </row>
+    <row r="142" s="6" customFormat="1" spans="1:7">
+      <c r="A142" s="49">
+        <v>20096</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="50"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="51"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/ChatInteraction.xlsx
+++ b/Assets/Designs/General/ChatInteraction.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>Hey,where are you heading for?</t>
+  </si>
+  <si>
+    <t>30021,30022</t>
   </si>
   <si>
     <t>I need to find a connector.</t>
@@ -1488,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1690,8 +1693,32 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2228,8 +2255,8 @@
   <sheetPr/>
   <dimension ref="A1:H242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="B190" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A224" sqref="$A214:$XFD224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7658,23 +7685,23 @@
       <c r="B209" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C209" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D209" s="26">
-        <v>108</v>
-      </c>
-      <c r="E209" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F209" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G209" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H209" s="28" t="s">
-        <v>18</v>
+      <c r="C209" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="66">
+        <v>1001</v>
+      </c>
+      <c r="E209" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="F209" s="66">
+        <v>-1</v>
+      </c>
+      <c r="G209" s="69">
+        <v>-1</v>
+      </c>
+      <c r="H209" s="70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="210" s="11" customFormat="1" spans="1:8">
@@ -7684,23 +7711,23 @@
       <c r="B210" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C210" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210" s="26">
-        <v>109</v>
-      </c>
-      <c r="E210" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F210" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G210" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H210" s="28" t="s">
+      <c r="C210" s="67" t="s">
         <v>18</v>
+      </c>
+      <c r="D210" s="66">
+        <v>0</v>
+      </c>
+      <c r="E210" s="68">
+        <v>-1</v>
+      </c>
+      <c r="F210" s="66">
+        <v>30023</v>
+      </c>
+      <c r="G210" s="69">
+        <v>-1</v>
+      </c>
+      <c r="H210" s="70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="211" s="11" customFormat="1" spans="1:8">
@@ -7708,25 +7735,25 @@
         <v>30022</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" s="26">
-        <v>110</v>
-      </c>
-      <c r="E211" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F211" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G211" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H211" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C211" s="67" t="s">
         <v>18</v>
+      </c>
+      <c r="D211" s="66">
+        <v>0</v>
+      </c>
+      <c r="E211" s="68">
+        <v>-1</v>
+      </c>
+      <c r="F211" s="66">
+        <v>30024</v>
+      </c>
+      <c r="G211" s="69">
+        <v>-1</v>
+      </c>
+      <c r="H211" s="70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="212" s="11" customFormat="1" spans="1:8">
@@ -7734,24 +7761,24 @@
         <v>30023</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D212" s="26">
-        <v>111</v>
-      </c>
-      <c r="E212" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F212" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G212" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H212" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C212" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="66">
+        <v>1001</v>
+      </c>
+      <c r="E212" s="68">
+        <v>-1</v>
+      </c>
+      <c r="F212" s="66">
+        <v>-1</v>
+      </c>
+      <c r="G212" s="69">
+        <v>-1</v>
+      </c>
+      <c r="H212" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7760,310 +7787,310 @@
         <v>30024</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D213" s="26">
-        <v>112</v>
-      </c>
-      <c r="E213" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F213" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G213" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H213" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C213" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="66">
+        <v>1001</v>
+      </c>
+      <c r="E213" s="68">
+        <v>-1</v>
+      </c>
+      <c r="F213" s="66">
+        <v>-1</v>
+      </c>
+      <c r="G213" s="69">
+        <v>-1</v>
+      </c>
+      <c r="H213" s="70" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="214" s="12" customFormat="1" spans="1:8">
-      <c r="A214" s="67">
+      <c r="A214" s="71">
         <v>30040</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C214" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D214" s="26">
-        <v>113</v>
-      </c>
-      <c r="E214" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F214" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G214" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H214" s="28" t="s">
-        <v>18</v>
+        <v>232</v>
+      </c>
+      <c r="C214" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="71">
+        <v>1008</v>
+      </c>
+      <c r="E214" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F214" s="71">
+        <v>30041</v>
+      </c>
+      <c r="G214" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H214" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="215" s="12" customFormat="1" spans="1:8">
-      <c r="A215" s="67">
+      <c r="A215" s="71">
         <v>30041</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C215" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" s="26">
-        <v>114</v>
-      </c>
-      <c r="E215" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F215" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G215" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H215" s="28" t="s">
-        <v>18</v>
+        <v>233</v>
+      </c>
+      <c r="C215" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="71">
+        <v>0</v>
+      </c>
+      <c r="E215" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F215" s="71">
+        <v>30042</v>
+      </c>
+      <c r="G215" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H215" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="216" s="12" customFormat="1" spans="1:8">
-      <c r="A216" s="67">
+      <c r="A216" s="71">
         <v>30042</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C216" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216" s="26">
-        <v>115</v>
-      </c>
-      <c r="E216" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F216" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G216" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H216" s="28" t="s">
-        <v>18</v>
+        <v>234</v>
+      </c>
+      <c r="C216" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="71">
+        <v>1008</v>
+      </c>
+      <c r="E216" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F216" s="71">
+        <v>30043</v>
+      </c>
+      <c r="G216" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H216" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="217" s="12" customFormat="1" spans="1:8">
-      <c r="A217" s="67">
+      <c r="A217" s="71">
         <v>30043</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D217" s="26">
-        <v>116</v>
-      </c>
-      <c r="E217" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F217" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G217" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H217" s="28" t="s">
-        <v>18</v>
+        <v>235</v>
+      </c>
+      <c r="C217" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" s="71">
+        <v>0</v>
+      </c>
+      <c r="E217" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F217" s="71">
+        <v>30044</v>
+      </c>
+      <c r="G217" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H217" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="218" s="12" customFormat="1" spans="1:8">
-      <c r="A218" s="67">
+      <c r="A218" s="71">
         <v>30044</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C218" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" s="26">
-        <v>117</v>
-      </c>
-      <c r="E218" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F218" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G218" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H218" s="28" t="s">
-        <v>18</v>
+        <v>236</v>
+      </c>
+      <c r="C218" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="71">
+        <v>1008</v>
+      </c>
+      <c r="E218" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F218" s="71">
+        <v>30045</v>
+      </c>
+      <c r="G218" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H218" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="219" s="12" customFormat="1" spans="1:8">
-      <c r="A219" s="67">
+      <c r="A219" s="71">
         <v>30045</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C219" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" s="26">
-        <v>118</v>
-      </c>
-      <c r="E219" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F219" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G219" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H219" s="28" t="s">
-        <v>18</v>
+        <v>237</v>
+      </c>
+      <c r="C219" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="71">
+        <v>0</v>
+      </c>
+      <c r="E219" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F219" s="71">
+        <v>30046</v>
+      </c>
+      <c r="G219" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H219" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="220" s="12" customFormat="1" spans="1:8">
-      <c r="A220" s="67">
+      <c r="A220" s="71">
         <v>30046</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C220" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D220" s="26">
-        <v>119</v>
-      </c>
-      <c r="E220" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F220" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G220" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H220" s="28" t="s">
-        <v>18</v>
+        <v>238</v>
+      </c>
+      <c r="C220" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="71">
+        <v>1008</v>
+      </c>
+      <c r="E220" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F220" s="71">
+        <v>30047</v>
+      </c>
+      <c r="G220" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H220" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="221" s="12" customFormat="1" spans="1:8">
-      <c r="A221" s="67">
+      <c r="A221" s="71">
         <v>30047</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C221" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D221" s="26">
-        <v>120</v>
-      </c>
-      <c r="E221" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F221" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G221" s="27">
+        <v>239</v>
+      </c>
+      <c r="C221" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="71">
+        <v>1008</v>
+      </c>
+      <c r="E221" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F221" s="71">
+        <v>30048</v>
+      </c>
+      <c r="G221" s="74">
         <v>2030</v>
       </c>
-      <c r="H221" s="28" t="s">
-        <v>18</v>
+      <c r="H221" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="222" s="12" customFormat="1" spans="1:8">
-      <c r="A222" s="67">
+      <c r="A222" s="71">
         <v>30048</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C222" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D222" s="26">
-        <v>121</v>
-      </c>
-      <c r="E222" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F222" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G222" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H222" s="28" t="s">
-        <v>18</v>
+        <v>240</v>
+      </c>
+      <c r="C222" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="71">
+        <v>0</v>
+      </c>
+      <c r="E222" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F222" s="71">
+        <v>30049</v>
+      </c>
+      <c r="G222" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H222" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="223" s="12" customFormat="1" spans="1:8">
-      <c r="A223" s="67">
+      <c r="A223" s="71">
         <v>30049</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C223" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D223" s="26">
-        <v>122</v>
-      </c>
-      <c r="E223" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F223" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G223" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H223" s="28" t="s">
-        <v>18</v>
+        <v>241</v>
+      </c>
+      <c r="C223" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="71">
+        <v>1008</v>
+      </c>
+      <c r="E223" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F223" s="71">
+        <v>30050</v>
+      </c>
+      <c r="G223" s="74">
+        <v>-1</v>
+      </c>
+      <c r="H223" s="75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="224" s="12" customFormat="1" spans="1:8">
-      <c r="A224" s="67">
+      <c r="A224" s="71">
         <v>30050</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C224" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D224" s="26">
-        <v>123</v>
-      </c>
-      <c r="E224" s="24">
-        <v>-1</v>
-      </c>
-      <c r="F224" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G224" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H224" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C224" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" s="71">
+        <v>0</v>
+      </c>
+      <c r="E224" s="73">
+        <v>-1</v>
+      </c>
+      <c r="F224" s="71">
+        <v>-1</v>
+      </c>
+      <c r="G224" s="74">
+        <v>3008</v>
+      </c>
+      <c r="H224" s="75" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8072,7 +8099,7 @@
         <v>60000</v>
       </c>
       <c r="B225" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C225" s="25" t="s">
         <v>13</v>
@@ -8098,7 +8125,7 @@
         <v>60001</v>
       </c>
       <c r="B226" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C226" s="25" t="s">
         <v>13</v>
@@ -8124,7 +8151,7 @@
         <v>60002</v>
       </c>
       <c r="B227" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C227" s="25" t="s">
         <v>13</v>
@@ -8176,7 +8203,7 @@
         <v>60004</v>
       </c>
       <c r="B229" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C229" s="25" t="s">
         <v>13</v>
@@ -8202,7 +8229,7 @@
         <v>60005</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C230" s="25" t="s">
         <v>13</v>
@@ -8228,7 +8255,7 @@
         <v>60006</v>
       </c>
       <c r="B231" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C231" s="25" t="s">
         <v>13</v>
@@ -8254,7 +8281,7 @@
         <v>60007</v>
       </c>
       <c r="B232" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C232" s="25" t="s">
         <v>13</v>
@@ -8280,7 +8307,7 @@
         <v>60008</v>
       </c>
       <c r="B233" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C233" s="25" t="s">
         <v>13</v>
@@ -8306,7 +8333,7 @@
         <v>60009</v>
       </c>
       <c r="B234" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C234" s="25" t="s">
         <v>13</v>
@@ -8332,7 +8359,7 @@
         <v>60010</v>
       </c>
       <c r="B235" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C235" s="25" t="s">
         <v>13</v>
@@ -8358,7 +8385,7 @@
         <v>60011</v>
       </c>
       <c r="B236" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C236" s="25" t="s">
         <v>13</v>
@@ -8384,7 +8411,7 @@
         <v>60012</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C237" s="25" t="s">
         <v>13</v>
@@ -8410,7 +8437,7 @@
         <v>60013</v>
       </c>
       <c r="B238" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C238" s="25" t="s">
         <v>13</v>
@@ -8436,7 +8463,7 @@
         <v>60014</v>
       </c>
       <c r="B239" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C239" s="25" t="s">
         <v>13</v>
@@ -8462,7 +8489,7 @@
         <v>60015</v>
       </c>
       <c r="B240" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C240" s="25" t="s">
         <v>13</v>
@@ -8514,7 +8541,7 @@
         <v>60017</v>
       </c>
       <c r="B242" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C242" s="25" t="s">
         <v>13</v>
